--- a/doc/excel/[sample_sysUser1]系统账号信息一张表导入.xlsx
+++ b/doc/excel/[sample_sysUser1]系统账号信息一张表导入.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\owip\doc\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤功能开发文件\20201127之后功能开发文件\主代码\2020.12.17组织机构统计和人员分类\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65E636C-024C-4B37-BE8F-39270AD3C48F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D03B3B3-6248-4E03-B598-BB601B9F95B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="22860" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -598,7 +598,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"教职工,本科生,研究生"</formula1>
+      <formula1>"教职工,本科生,硕士研究生,博士研究生"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{D307FFB6-1698-47B5-8BA0-811C91372906}">
       <formula1>"男,女"</formula1>

--- a/doc/excel/[sample_sysUser1]系统账号信息一张表导入.xlsx
+++ b/doc/excel/[sample_sysUser1]系统账号信息一张表导入.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤功能开发文件\20201127之后功能开发文件\主代码\2020.12.17组织机构统计和人员分类\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D03B3B3-6248-4E03-B598-BB601B9F95B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AD1F4E-B223-46B8-B8FC-A0F2EE81F76F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="630" windowWidth="22860" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1185" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/excel/[sample_sysUser1]系统账号信息一张表导入.xlsx
+++ b/doc/excel/[sample_sysUser1]系统账号信息一张表导入.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AD1F4E-B223-46B8-B8FC-A0F2EE81F76F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1185" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1185" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>性别</t>
   </si>
@@ -73,10 +72,6 @@
   </si>
   <si>
     <t>退休时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否退休</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,7 +196,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{DFF64B2F-461B-48C8-8946-3EE8C8C3F903}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,11 +473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -497,23 +492,23 @@
     <col min="14" max="14" width="14.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="14" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -525,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
@@ -537,16 +532,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>11</v>
@@ -555,25 +550,22 @@
         <v>12</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -592,16 +584,15 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"教职工,本科生,硕士研究生,博士研究生"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{D307FFB6-1698-47B5-8BA0-811C91372906}">
-      <formula1>"男,女"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>"在职教职工,离退休教职工,本科生,硕士研究生,博士研究生"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/excel/[sample_sysUser1]系统账号信息一张表导入.xlsx
+++ b/doc/excel/[sample_sysUser1]系统账号信息一张表导入.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C01815-B1AA-40BF-9901-52BEA6EFA9C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1185" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="2595" yWindow="1950" windowWidth="25005" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$T$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>性别</t>
   </si>
@@ -100,13 +101,21 @@
   </si>
   <si>
     <t>职称/专业技术职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +205,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,11 +482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -487,17 +496,17 @@
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
-    <col min="8" max="12" width="14.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="14" width="14.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.125" style="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="15.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -535,37 +544,43 @@
         <v>20</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -581,17 +596,19 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"在职教职工,离退休教职工,本科生,硕士研究生,博士研究生"</formula1>
     </dataValidation>
   </dataValidations>
